--- a/example/output_files/319meeting.xlsx
+++ b/example/output_files/319meeting.xlsx
@@ -114,13 +114,6 @@
       <sz val="9"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
       <name val="宋体"/>
       <charset val="134"/>
       <family val="3"/>
@@ -136,6 +129,13 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="1"/>
       <sz val="10"/>
@@ -415,6 +415,17 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -428,17 +439,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -534,7 +534,7 @@
     <xf applyAlignment="1" borderId="9" fillId="3" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="3" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="3" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="12" fillId="0" fontId="14" numFmtId="20" pivotButton="0" quotePrefix="0" xfId="0">
@@ -551,7 +551,7 @@
     <xf applyAlignment="1" borderId="12" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -560,25 +560,25 @@
     <xf applyAlignment="1" borderId="12" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="3" fontId="17" numFmtId="20" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="12" fillId="3" fontId="16" numFmtId="20" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="12" fillId="3" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="12" fillId="3" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="3" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="12" fillId="3" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="3" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="3" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="3" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="12" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -588,21 +588,21 @@
     <xf applyAlignment="1" borderId="12" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="4" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="5" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="6" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="12" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="12" fillId="4" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="5" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="6" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="12" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -612,10 +612,10 @@
     <xf applyAlignment="1" borderId="12" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="3" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -3012,8 +3012,8 @@
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="K49:L49"/>
+    <mergeCell ref="A25:F25"/>
     <mergeCell ref="K24:N24"/>
-    <mergeCell ref="A25:F25"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A44:F44"/>

--- a/example/output_files/319meeting.xlsx
+++ b/example/output_files/319meeting.xlsx
@@ -1832,7 +1832,7 @@
       <c r="F22" s="38" t="n"/>
       <c r="G22" s="49" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H22" s="50" t="inlineStr">
@@ -1956,7 +1956,7 @@
       <c r="F25" s="38" t="n"/>
       <c r="G25" s="53" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H25" s="54" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="I25" s="39" t="inlineStr">
         <is>
-          <t>15:38</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="J25" s="55" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="I26" s="39" t="inlineStr">
         <is>
-          <t>15:39</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="J26" s="55" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="I27" s="39" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="J27" s="55" t="inlineStr">
@@ -2055,7 +2055,7 @@
     <row customHeight="1" ht="15.75" r="28">
       <c r="A28" s="47" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="B28" s="48" t="inlineStr">
@@ -2083,7 +2083,7 @@
     <row customHeight="1" ht="15.75" r="29">
       <c r="A29" s="47" t="inlineStr">
         <is>
-          <t>15:51</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="B29" s="48" t="inlineStr">
@@ -2097,7 +2097,7 @@
       <c r="F29" s="38" t="n"/>
       <c r="G29" s="49" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H29" s="50" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="I30" s="39" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="J30" s="55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I31" s="39" t="inlineStr">
         <is>
-          <t>15:53</t>
+          <t>15:56</t>
         </is>
       </c>
       <c r="J31" s="55" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="I32" s="39" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:03</t>
         </is>
       </c>
       <c r="J32" s="55" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="I33" s="39" t="inlineStr">
         <is>
-          <t>16:01</t>
+          <t>16:04</t>
         </is>
       </c>
       <c r="J33" s="55" t="inlineStr">
@@ -2274,7 +2274,7 @@
       <c r="F34" s="38" t="n"/>
       <c r="G34" s="53" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H34" s="54" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I34" s="39" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>16:16</t>
         </is>
       </c>
       <c r="J34" s="55" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="I35" s="39" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="J35" s="55" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="I36" s="39" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="J36" s="55" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="I37" s="39" t="inlineStr">
         <is>
-          <t>16:13</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="J37" s="55" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="I38" s="39" t="inlineStr">
         <is>
-          <t>16:16</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="J38" s="55" t="inlineStr">
@@ -2434,7 +2434,7 @@
     <row customHeight="1" ht="24" r="39">
       <c r="A39" s="47" t="inlineStr">
         <is>
-          <t>16:16</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="B39" s="48" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="I40" s="39" t="inlineStr">
         <is>
-          <t>16:26</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="J40" s="55" t="inlineStr">
@@ -2506,7 +2506,7 @@
     <row customHeight="1" ht="23.4" r="41">
       <c r="A41" s="47" t="inlineStr">
         <is>
-          <t>16:26</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="B41" s="48" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="I42" s="39" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="J42" s="55" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I43" s="39" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>16:37</t>
         </is>
       </c>
       <c r="J43" s="55" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="I44" s="39" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="J44" s="55" t="inlineStr">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="I45" s="39" t="inlineStr">
         <is>
-          <t>16:34</t>
+          <t>16:42</t>
         </is>
       </c>
       <c r="J45" s="55" t="inlineStr">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="I46" s="39" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>16:49</t>
         </is>
       </c>
       <c r="J46" s="55" t="inlineStr">
@@ -2762,7 +2762,7 @@
     <row customHeight="1" ht="21.6" r="47">
       <c r="A47" s="75" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>16:49</t>
         </is>
       </c>
       <c r="B47" s="75" t="inlineStr">
@@ -2794,7 +2794,7 @@
     <row customHeight="1" ht="23.25" r="48">
       <c r="A48" s="47" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>16:49</t>
         </is>
       </c>
       <c r="B48" s="48" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="I49" s="39" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="J49" s="55" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="I50" s="39" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="J50" s="55" t="inlineStr">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="I51" s="39" t="inlineStr">
         <is>
-          <t>16:46</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="J51" s="55" t="inlineStr">
@@ -2966,7 +2966,7 @@
     <row customHeight="1" ht="24" r="52">
       <c r="A52" s="75" t="inlineStr">
         <is>
-          <t>16:46</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="B52" s="75" t="inlineStr">
